--- a/biology/Médecine/Rikkunshito/Rikkunshito.xlsx
+++ b/biology/Médecine/Rikkunshito/Rikkunshito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rikkunshito[1] , ou Rikkunshi-tō , correspond à la formule numéro 43 de la médecine kampo[2]. C'est une préparation médicinale japonaise[3] utilisée dans le traitement de l'anorexie et le dyspepsie fonctionnelle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rikkunshito , ou Rikkunshi-tō , correspond à la formule numéro 43 de la médecine kampo. C'est une préparation médicinale japonaise utilisée dans le traitement de l'anorexie et le dyspepsie fonctionnelle.
 Le rikkunshito est composé de huit plantes : 
-18,6% Atractylodis Lanceae (ja)  Rhizoma (nom japonais: sojutsu), 18,6% Ginseng Radix (nom japonais: ninjin), 18,6% Pinelliae Tuber (nom japonais: hange), 18,6% Hoelen (nom japonais: bukuryo), 9,3% Zizyphi Fructus (nom japonais: taiso), 9,3% Aurantii Nobilis Pericarpium (nom japonais: chinpi), 4,7% Glycyrrhizae Radix (nom japonais: kanzo) et 2,3% Zingiberis Rhizoma (nom japonais: shokyo) [4] ,[1],[5].
-Le rikkunshito favorise la sécrétion de ghréline dans l'estomac, augmente la sensibilité des récepteurs de la ghréline, et améliore la motilité gastrointestinale[1],[4].
+18,6% Atractylodis Lanceae (ja)  Rhizoma (nom japonais: sojutsu), 18,6% Ginseng Radix (nom japonais: ninjin), 18,6% Pinelliae Tuber (nom japonais: hange), 18,6% Hoelen (nom japonais: bukuryo), 9,3% Zizyphi Fructus (nom japonais: taiso), 9,3% Aurantii Nobilis Pericarpium (nom japonais: chinpi), 4,7% Glycyrrhizae Radix (nom japonais: kanzo) et 2,3% Zingiberis Rhizoma (nom japonais: shokyo)  .
+Le rikkunshito favorise la sécrétion de ghréline dans l'estomac, augmente la sensibilité des récepteurs de la ghréline, et améliore la motilité gastrointestinale,.
 </t>
         </is>
       </c>
